--- a/spreadsheet/macrofree/azuremachinelearning_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azuremachinelearning_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Implementación de modelos de varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación de varias regiones cuando sea posible.</t>
+          <t>Implementación de modelos en varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación en varias regiones cuando sea posible.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero se pueden interrumpir. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
+          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero son interrumpibles. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
+          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red dentro de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso de salida aprobado: configure el modo de salida en el acceso de salida administrado del área de trabajo de Machine Learning a "Permitir solo el acceso de salida aprobado" para minimizar el riesgo de exfiltración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
+          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning en "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de los recursos.</t>
+          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de recursos.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>El uso de las imágenes más recientes garantiza que mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
+          <t>El uso de las imágenes más recientes garantiza que se mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, puede tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
+          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, podría tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Al restringir las implementaciones del catálogo de modelos a registros específicos, se garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
+          <t>La restricción de las implementaciones del catálogo de modelos a registros específicos garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para la CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
+          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivos y problemas de rendimiento.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo mayor para evitar tener que pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
+          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo más alto para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1707,7 +1707,7 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Establecer directivas de finalización del entrenamiento: establezca directivas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
+          <t>Establecer políticas de finalización del entrenamiento: establezca políticas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
@@ -1740,7 +1740,7 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que se puedan recuperar las interrupciones.</t>
+          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que las interrupciones sean recuperables.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las instancias informáticas están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
+          <t>De forma predeterminada, las instancias de proceso están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso para los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
+          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso durante los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente al uso de la máquina virtual que coincida con la reserva.</t>
+          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente por el uso de la máquina virtual que coincida con la reserva.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Use los catálogos de modelos de Machine Learning para ayudarle a implementar pruebas A/B e implementación de modelos.</t>
+          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Utilice los catálogos de modelos de Machine Learning para ayudarle a implementar las pruebas A/B y la implementación de modelos.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden detectar, evaluar y ajustar modelos básicos de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
+          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden descubrir, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de formación le proporciona la información necesaria para realizar cambios en su entorno de formación. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita el escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
+          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de modelos pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir un SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de formación le proporciona la información necesaria para realizar cambios en su entorno de formación. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azuremachinelearning_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azuremachinelearning_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Implementación de modelos en varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación en varias regiones cuando sea posible.</t>
+          <t>Implementación de modelos de varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación de varias regiones cuando sea posible.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1095,7 +1095,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Resistencia de entrenamiento de modelos: use las características de puntos de control compatibles con Machine Learning, como Azure Container for PyTorch, la clase TensorFlow Estimator o el objeto Run y la clase FileDataset que admiten puntos de control de modelos.</t>
+          <t>Resistencia de entrenamiento del modelo: use las características de puntos de control compatibles con Machine Learning, como Azure Container for PyTorch, la clase TensorFlow Estimator o el objeto Run y la clase FileDataset que admiten puntos de control del modelo.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>La línea de base de seguridad proporciona orientación personalizada sobre aspectos de seguridad cruciales, como la seguridad de la red, la gestión de identidades, la protección de datos y el acceso con privilegios. Para una seguridad óptima, use Microsoft Defender for Cloud para supervisar estos aspectos.</t>
+          <t>La línea de base de seguridad proporciona orientación personalizada sobre aspectos de seguridad cruciales, como la seguridad de la red, la administración de identidades, la protección de datos y el acceso con privilegios. Para una seguridad óptima, use Microsoft Defender for Cloud para supervisar estos aspectos.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Aislamiento de red virtual administrada: configure el aislamiento de red virtual administrada para Machine Learning. Al habilitar el aislamiento de red virtual administrada, se crea una red virtual administrada para el área de trabajo. Los recursos de proceso administrados que cree para el área de trabajo usan automáticamente esta red virtual administrada. Si no puede implementar el aislamiento de red virtual administrado, debe seguir las recomendaciones de topología de red para separar el proceso en una subred dedicada lejos del resto de los recursos de la solución, incluidos los puntos de conexión privados para los recursos del área de trabajo.</t>
+          <t>Aislamiento de red virtual administrada: configure el aislamiento de red virtual administrada para Machine Learning. Al habilitar el aislamiento de red virtual administrada, se crea una red virtual administrada para el área de trabajo. Los recursos de proceso administrados que cree para el área de trabajo usarán automáticamente esta red virtual administrada. Si no puede implementar el aislamiento de red virtual administrado, debe seguir las recomendaciones de topología de red para separar el proceso en una subred dedicada del resto de los recursos de la solución, incluidos los puntos de conexión privados para los recursos del área de trabajo.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red dentro de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
+          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning en "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
+          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning a "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de recursos.</t>
+          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de los recursos.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>El uso de las imágenes más recientes garantiza que se mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
+          <t>El uso de las imágenes más recientes garantiza que mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de datos en reposo mejora la seguridad de los datos al garantizar que los datos confidenciales se cifren mediante el uso de claves administradas directamente por usted. Si tiene un requisito normativo para administrar sus propias claves de cifrado, utilice esta función para cumplir con ese requisito.</t>
+          <t>El cifrado de datos en reposo mejora la seguridad de los datos, ya que garantiza que los datos confidenciales se cifren mediante el uso de claves administradas directamente por usted. Si tiene un requisito normativo para administrar sus propias claves de cifrado, use esta función para cumplir con ese requisito.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
+          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para computación: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para la CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones básicas especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. La elección de una GPU o una SKU de alto rendimiento sin un uso adecuado puede dar lugar a un gasto innecesario, mientras que la elección de un proceso de tamaño insuficiente puede dar lugar a tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo más alto para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
+          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo mayor para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Configure el escalado automático para que los clústeres de proceso reduzcan verticalmente cuando su uso sea bajo.  Establezca el número mínimo de nodos en 0 para que los clústeres de entrenamiento se reduzcan verticalmente a 0 cuando no estén en uso.</t>
+          <t>Configure el escalado automático para que los clústeres de proceso se reduzcan verticalmente cuando su uso sea bajo.  Establezca el número mínimo de nodos en 0 para que los clústeres de entrenamiento se reduzcan verticalmente a 0 cuando no estén en uso.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1707,7 +1707,7 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Establecer políticas de finalización del entrenamiento: establezca políticas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
+          <t>Establecer directivas de finalización del entrenamiento: establezca directivas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que las interrupciones sean recuperables.</t>
+          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean sensibles al tiempo y en las que se puedan recuperar las interrupciones.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de baja prioridad permiten utilizar una gran cantidad de potencia de proceso a bajo costo. Aprovechan el excedente de capacidad de Azure.</t>
+          <t>Las máquinas virtuales de baja prioridad permiten usar una gran cantidad de potencia de proceso a bajo costo. Aprovechan el excedente de capacidad de Azure.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las instancias de proceso están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
+          <t>De forma predeterminada, las instancias informáticas están disponibles para usted, acumulando costos. La configuración de instancias informáticas para que se apaguen cuando estén inactivas o la configuración de una programación para ellas ahorra costos cuando no están en uso.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente por el uso de la máquina virtual que coincida con la reserva.</t>
+          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente al uso de la máquina virtual que coincida con la reserva.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Utilice los catálogos de modelos de Machine Learning para ayudarle a implementar las pruebas A/B y la implementación de modelos.</t>
+          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Use los catálogos de modelos de Machine Learning para ayudarle a implementar pruebas A/B e implementación de modelos.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden descubrir, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
+          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden detectar, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones canary y reversiones.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarle si se está acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir verticalmente, aumentar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
+          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita el escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. Elegir la SKU y la CPU correctas en lugar de la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2110,7 +2110,7 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Supervise el rendimiento del modelo: supervise el rendimiento de los modelos implementados.</t>
+          <t>Supervisar el rendimiento del modelo: supervise el rendimiento de los modelos implementados.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Supervise la infraestructura: supervise los puntos finales en línea e intégrelos con Monitor para realizar un seguimiento y supervisar las métricas y los registros adecuados. Habilite Application Insights al crear implementaciones en línea. Supervise la infraestructura de entrenamiento y revise el uso de recursos, como la memoria y el uso de CPU o GPU, al entrenar modelos para asegurarse de que cumple con los requisitos básicos.</t>
+          <t>Supervise la infraestructura: supervise los puntos finales en línea e intégrelo con Monitor para realizar un seguimiento y supervisar las métricas y los registros adecuados. Habilite Application Insights al crear implementaciones en línea. Supervise la infraestructura de entrenamiento y revise el uso de recursos, como la memoria y el uso de CPU o GPU, al entrenar modelos para asegurarse de que cumple con los requisitos básicos.</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarle si se está acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir verticalmente, aumentar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
